--- a/xlsx/埃德蒙·费尔普斯_intext.xlsx
+++ b/xlsx/埃德蒙·费尔普斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_埃德蒙·费尔普斯</t>
+    <t>政策_政策_货币政策_埃德蒙·费尔普斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E5%AE%B6</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%96%A9%E7%B9%86%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保羅·薩繆爾森</t>
+    <t>保罗·萨缪尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF%C2%B7%E5%BA%93%E5%85%B9%E6%B6%85%E8%8C%A8</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>米爾頓·佛利民</t>
+    <t>米尔顿·佛利民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E8%92%82%E5%B0%94%C2%B7%E5%A5%A5%E6%9E%97</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E8%88%92%E7%88%BE%E8%8C%A8</t>
   </si>
   <si>
-    <t>西奧多·威廉·舒爾茨</t>
+    <t>西奥多·威廉·舒尔茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%98%BF%E7%91%9F%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
@@ -215,37 +215,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%89%98%E8%B3%93</t>
   </si>
   <si>
-    <t>詹姆士·托賓</t>
+    <t>詹姆士·托宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>喬治·斯蒂格勒</t>
+    <t>乔治·斯蒂格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E5%BE%B7%C2%B7%E5%BE%B7%E5%B8%83%E9%AD%AF</t>
   </si>
   <si>
-    <t>傑拉德·德布魯</t>
+    <t>杰拉德·德布鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%8F%B2%E6%9D%B1</t>
   </si>
   <si>
-    <t>理查德·史東</t>
+    <t>理查德·史东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E7%A7%91%C2%B7%E8%8E%AB%E8%BF%AA%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>弗蘭科·莫迪利安尼</t>
+    <t>弗兰科·莫迪利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7M%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E5%A4%AB%C2%B7%E5%93%88%E7%B6%AD%E9%BB%98</t>
   </si>
   <si>
-    <t>特里夫·哈維默</t>
+    <t>特里夫·哈维默</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E9%A6%AC%E5%8F%AF%E7%B6%AD%E8%8C%B2</t>
   </si>
   <si>
-    <t>哈利·馬可維茲</t>
+    <t>哈利·马可维兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E9%A1%BF%C2%B7%E7%B1%B3%E5%8B%92</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%91%9E%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>蓋瑞·貝克</t>
+    <t>盖瑞·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%A6%8F%E6%A0%BC%E5%B0%94</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%92%99%E4%BB%A3%E7%88%BE</t>
   </si>
   <si>
-    <t>羅伯特·蒙代爾</t>
+    <t>罗伯特·蒙代尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B5%AB%E5%85%8B%E6%9B%BC</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%A0%BC%E6%9B%BC</t>
   </si>
   <si>
-    <t>保羅·克魯格曼</t>
+    <t>保罗·克鲁格曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%8E%89%E8%AF%BA%C2%B7%E5%A5%A5%E6%96%AF%E7%89%B9%E7%BD%97%E5%A7%86</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%91%AA%E6%96%AF%C2%B7%E8%96%A9%E9%87%91%E7%89%B9</t>
   </si>
   <si>
-    <t>托瑪斯·薩金特</t>
+    <t>托玛斯·萨金特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E8%A5%BF%E5%A7%86%E6%96%AF</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%83%C2%B7%E5%B8%AD%E5%8B%92</t>
   </si>
   <si>
-    <t>羅勃·席勒</t>
+    <t>罗勃·席勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E6%A2%AF%E8%8B%A5%E5%B0%94</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%AE%91%E8%8E%AB%E7%88%BE</t>
   </si>
   <si>
-    <t>威廉·鮑莫爾</t>
+    <t>威廉·鲍莫尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/James_Duesenberry</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%96%87%C2%B7%E6%BC%A2%E6%A3%AE</t>
   </si>
   <si>
-    <t>阿爾文·漢森</t>
+    <t>阿尔文·汉森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%8A%C2%B7%E5%93%88%E7%BE%85%E5%BE%B7</t>
   </si>
   <si>
-    <t>羅伊·哈羅德</t>
+    <t>罗伊·哈罗德</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lloyd_Metzler</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%91%9F%C2%B7%E5%A5%A7%E8%82%AF</t>
   </si>
   <si>
-    <t>亞瑟·奧肯</t>
+    <t>亚瑟·奥肯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Don_Patinkin</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E5%8D%A1%E7%88%BE%E5%A4%9A</t>
   </si>
   <si>
-    <t>尼古拉斯·卡爾多</t>
+    <t>尼古拉斯·卡尔多</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Micha%C5%82_Kalecki</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/G._L._S._Shackle</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E5%88%A9%C2%B7%E8%B2%BB%E5%B8%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>斯坦利·費希爾</t>
+    <t>斯坦利·费希尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%B0%94%E8%BF%AA%C2%B7%E5%8A%A0%E5%88%A9</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%80%A7%E4%BF%A1%E5%AE%8F</t>
   </si>
   <si>
-    <t>清瀧信宏</t>
+    <t>清泷信宏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E9%AB%98%E5%88%A9%C2%B7%E6%9B%BC%E6%98%86</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%87%8C%E5%9F%83%E7%88%BE%C2%B7%E9%AD%AF%E6%AF%94%E5%B0%BC</t>
   </si>
   <si>
-    <t>魯里埃爾·魯比尼</t>
+    <t>鲁里埃尔·鲁比尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E6%96%BD%E8%8E%B1%E8%B4%B9%E5%B0%94</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%96%A9%E9%BB%98%E6%96%AF</t>
   </si>
   <si>
-    <t>勞倫斯·薩默斯</t>
+    <t>劳伦斯·萨默斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7B%C2%B7%E6%B3%B0%E5%8B%92</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -959,19 +959,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
